--- a/王者系统/测试文档/王者系统客户端测试用例运行结果报告.xlsx
+++ b/王者系统/测试文档/王者系统客户端测试用例运行结果报告.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\nl_files\王者系统\测试文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667E8ED0-9464-4605-BDD6-C7E2CD9AC2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514EE22C-14D7-4DA2-97EB-57B5D9B21470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{536875B9-95B1-4DE2-94EB-8EA85D31D9CF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="107">
   <si>
     <t>模块名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,10 +346,6 @@
   </si>
   <si>
     <t>一次性消费大于等于￥33000，团队累计消费小于￥200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次性消费大于等于￥33000，团队累计消费大于等于￥200000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -525,6 +521,14 @@
 无直推无间推，业绩：499；
 有直推无间推，业绩：499 - 59 = 440；
 有直推有间推，业绩：499 - 59 - 29 = 411；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性消费大于等于￥33000，团队累计消费大于等于￥200000，进入APP申请成为运营中心，提交相关资料等待后台审核，审核不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性消费大于等于￥33000，团队累计消费大于等于￥200000，进入APP申请成为运营中心，提交相关资料等待后台审核，审核通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,6 +709,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -716,15 +729,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1040,11 +1044,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E709AE23-7050-41A7-879C-CFE9D16ED959}">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1059,15 +1063,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1093,10 +1097,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -1114,8 +1118,8 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="9" t="s">
         <v>26</v>
       </c>
@@ -1131,8 +1135,8 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="9" t="s">
         <v>27</v>
       </c>
@@ -1148,8 +1152,8 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1167,8 +1171,8 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="9" t="s">
         <v>15</v>
       </c>
@@ -1184,8 +1188,8 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="9" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1207,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="9" t="s">
         <v>22</v>
       </c>
@@ -1219,8 +1223,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="9" t="s">
         <v>24</v>
       </c>
@@ -1238,8 +1242,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1256,8 +1260,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="9" t="s">
         <v>31</v>
       </c>
@@ -1272,8 +1276,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="9" t="s">
         <v>33</v>
       </c>
@@ -1288,8 +1292,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="9" t="s">
         <v>35</v>
       </c>
@@ -1304,10 +1308,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -1327,8 +1331,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="9" t="s">
         <v>42</v>
       </c>
@@ -1346,8 +1350,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="9" t="s">
         <v>43</v>
       </c>
@@ -1365,8 +1369,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="9" t="s">
         <v>44</v>
       </c>
@@ -1384,8 +1388,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -1405,8 +1409,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="9" t="s">
         <v>52</v>
       </c>
@@ -1424,8 +1428,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="9" t="s">
         <v>47</v>
       </c>
@@ -1443,8 +1447,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="9" t="s">
         <v>48</v>
       </c>
@@ -1462,8 +1466,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="9" t="s">
         <v>49</v>
       </c>
@@ -1481,8 +1485,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="18" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -1502,8 +1506,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="9" t="s">
         <v>53</v>
       </c>
@@ -1521,8 +1525,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="9" t="s">
         <v>54</v>
       </c>
@@ -1540,8 +1544,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="9" t="s">
         <v>55</v>
       </c>
@@ -1559,8 +1563,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="9" t="s">
         <v>56</v>
       </c>
@@ -1578,8 +1582,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -1599,8 +1603,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="9" t="s">
         <v>59</v>
       </c>
@@ -1618,8 +1622,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="9" t="s">
         <v>60</v>
       </c>
@@ -1637,8 +1641,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="9" t="s">
         <v>61</v>
       </c>
@@ -1656,8 +1660,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="9" t="s">
         <v>62</v>
       </c>
@@ -1675,8 +1679,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="18" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="14" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -1696,8 +1700,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="9" t="s">
         <v>65</v>
       </c>
@@ -1715,8 +1719,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="9" t="s">
         <v>66</v>
       </c>
@@ -1734,8 +1738,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="9" t="s">
         <v>71</v>
       </c>
@@ -1753,8 +1757,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="9" t="s">
         <v>67</v>
       </c>
@@ -1772,8 +1776,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="18" t="s">
+      <c r="A39" s="15"/>
+      <c r="B39" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -1793,8 +1797,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="9" t="s">
         <v>70</v>
       </c>
@@ -1812,8 +1816,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="9" t="s">
         <v>72</v>
       </c>
@@ -1831,8 +1835,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="9" t="s">
         <v>74</v>
       </c>
@@ -1850,8 +1854,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="9" t="s">
         <v>73</v>
       </c>
@@ -1869,8 +1873,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="18" t="s">
+      <c r="A44" s="15"/>
+      <c r="B44" s="14" t="s">
         <v>75</v>
       </c>
       <c r="C44" s="9" t="s">
@@ -1890,8 +1894,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="9" t="s">
         <v>77</v>
       </c>
@@ -1908,281 +1912,299 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
+    <row r="46" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="C48" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E51" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="9" t="s">
+      <c r="F51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
+      <c r="B52" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="C52" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="D52" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="E52" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E51" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="9" t="s">
+      <c r="D53" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="E53" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="244.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E52" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="244.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="9" t="s">
+      <c r="D54" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="E54" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="18" t="s">
+      <c r="C55" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="D55" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="E55" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E54" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="9" t="s">
+      <c r="D56" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="E56" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E55" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="9" t="s">
+      <c r="D57" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="E57" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="9" t="s">
+      <c r="D58" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="E58" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E57" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
-      <c r="B58" s="18" t="s">
+      <c r="C59" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="D59" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="9" t="s">
+      <c r="D60" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="9" t="s">
+      <c r="D61" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D60" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E61" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="62" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2223,28 +2245,29 @@
     <row r="99" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="103" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="A51:A60"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A15:A50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B29:B33"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="A3:A14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A15:A51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="A52:A61"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B19:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/王者系统/测试文档/王者系统客户端测试用例运行结果报告.xlsx
+++ b/王者系统/测试文档/王者系统客户端测试用例运行结果报告.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\nl_files\王者系统\测试文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514EE22C-14D7-4DA2-97EB-57B5D9B21470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961BD4C1-061E-4C0A-8EFB-711895B9A22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{536875B9-95B1-4DE2-94EB-8EA85D31D9CF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="187">
   <si>
     <t>模块名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -531,12 +531,331 @@
     <t>一次性消费大于等于￥33000，团队累计消费大于等于￥200000，进入APP申请成为运营中心，提交相关资料等待后台审核，审核通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>个人资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击头像并选择一个txt文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断流程，提示：请选择一个合法的图片上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击头像并选择一个图片文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功并展示头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击名称，输入空字符保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断流程，提示：名称不能为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击名称，输入任意字符并保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功并展示名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击修改性别，不选择性别并保持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功，性别显示为保密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能未开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击修改性别，选择男性并保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功，性别显示为男性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击修改性别，选择女性并保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功，性别显示为女性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击修改生日，不选择年月日并保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功，生日显示为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击修改生日，选择年并保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断流程，提示：请选择完整的生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击修改生日，选择年月并保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击修改生日，选择大于当前日期的年月日并保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断流程，提示：生日不能大于当前日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击修改生日，选择小于当前日期的年月日并保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功并展示生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击修改职业，输入空字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功并展示职业为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击修改职业，输入任意字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功并展示职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断流程，提示：请输入验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取验证码并输入错误的验证码，点击修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断流程，提示：验证码错误，请重新输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取验证码并输入正确的验证码，点击修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断流程，提示：请输入新密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取验证码并输入正确的验证码，输入新密码，点击修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断流程，提示：请输入确认密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取验证码并输入正确的验证码，输入新密码，输入与新密码不一致的确认密码，点击修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断流程，提示：确认密码和新密码不一致，请重新输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取验证码并输入正确的验证码，输入新密码，输入与新密码一致的确认密码，点击修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码成功，退出登录并跳转到登录页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码成功，但未退出登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址管理</t>
+  </si>
+  <si>
+    <t>添加地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加地址，点击保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断流程，提示：请输入收货人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加地址，输入收货人姓名，点击保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断流程，提示：请输入收货人手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加地址，输入收货人姓名，输入不合法的手机号，点击保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断流程，提示：请输入合法的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加地址，输入收货人姓名，输入合法的手机号，选择省市区，点击保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断流程，提示：请输入详细地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加地址，输入收货人姓名，输入合法的手机号，选择省市区，输入详细地址，点击保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加成功，地址列表展示地址信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加地址，输入收货人姓名，输入合法的手机号，选择省市区，输入详细地址，勾选设为默认地址，点击保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加成功，地址列表展示地址信息，并展示默认标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有验证手机号的合法性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试流程同添加地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑地址，点击右上角删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除成功，地址列表不展示删除的地址信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断流程，提示：请输入反馈内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击意见反馈，点击提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击意见反馈，输入反馈内容，点击提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交反馈信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入推广二维码页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入推广二维码页，点击下载二维码保存到本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成推广二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存二维码到本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,8 +904,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -596,6 +923,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,7 +999,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,20 +1018,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -709,6 +1033,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -718,17 +1045,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1044,40 +1380,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E709AE23-7050-41A7-879C-CFE9D16ED959}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <pane ySplit="2" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" style="9" customWidth="1"/>
-    <col min="4" max="5" width="42.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" style="7" customWidth="1"/>
+    <col min="4" max="5" width="42.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1097,125 +1433,125 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="19"/>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="19"/>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="19"/>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="19"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -1224,35 +1560,35 @@
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="10" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -1262,13 +1598,13 @@
     <row r="12" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -1278,13 +1614,13 @@
     <row r="13" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -1292,15 +1628,15 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="9" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -1308,740 +1644,740 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="D21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="D22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="D24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="D25" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="D26" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="8" t="s">
+      <c r="D27" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="8" t="s">
+      <c r="D29" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="8" t="s">
+      <c r="D30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="8" t="s">
+      <c r="D31" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="8" t="s">
+      <c r="D32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="15"/>
+      <c r="C33" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="8" t="s">
+      <c r="D34" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="8" t="s">
+      <c r="D35" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="8" t="s">
+      <c r="D36" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="8" t="s">
+      <c r="D37" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="15"/>
+      <c r="C38" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="8" t="s">
+      <c r="D39" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="8" t="s">
+      <c r="D40" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="8" t="s">
+      <c r="D41" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="8" t="s">
+      <c r="D42" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="9" t="s">
+      <c r="B43" s="15"/>
+      <c r="C43" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="8" t="s">
+      <c r="D44" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="8" t="s">
+      <c r="D45" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" s="8" t="s">
+      <c r="D46" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="9" t="s">
+      <c r="B47" s="15"/>
+      <c r="C47" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E48" s="8" t="s">
+      <c r="D48" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="8" t="s">
+      <c r="D49" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" s="8" t="s">
+      <c r="D50" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G50" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="9" t="s">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="G51" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="10" t="s">
         <v>86</v>
       </c>
       <c r="F52" s="4" t="s">
@@ -2051,13 +2387,13 @@
     <row r="53" spans="1:7" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="10" t="s">
         <v>88</v>
       </c>
       <c r="F53" s="4" t="s">
@@ -2066,35 +2402,35 @@
     </row>
     <row r="54" spans="1:7" ht="244.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="9" t="s">
+      <c r="B54" s="15"/>
+      <c r="C54" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="10" t="s">
         <v>90</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G54" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="10" t="s">
         <v>93</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -2104,13 +2440,13 @@
     <row r="56" spans="1:7" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="10" t="s">
         <v>95</v>
       </c>
       <c r="F56" s="4" t="s">
@@ -2120,13 +2456,13 @@
     <row r="57" spans="1:7" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="10" t="s">
         <v>97</v>
       </c>
       <c r="F57" s="4" t="s">
@@ -2135,35 +2471,35 @@
     </row>
     <row r="58" spans="1:7" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="9" t="s">
+      <c r="B58" s="15"/>
+      <c r="C58" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="10" t="s">
         <v>99</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G58" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="10" t="s">
         <v>93</v>
       </c>
       <c r="F59" s="4" t="s">
@@ -2173,13 +2509,13 @@
     <row r="60" spans="1:7" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="10" t="s">
         <v>97</v>
       </c>
       <c r="F60" s="4" t="s">
@@ -2187,74 +2523,614 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="9" t="s">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="10" t="s">
         <v>104</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G61" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G61" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13"/>
+      <c r="B64" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
+      <c r="B66" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G66" s="20"/>
+    </row>
+    <row r="67" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G67" s="20"/>
+    </row>
+    <row r="68" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="13"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G68" s="20"/>
+    </row>
+    <row r="69" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G69" s="20"/>
+    </row>
+    <row r="70" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13"/>
+      <c r="B70" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G70" s="20"/>
+    </row>
+    <row r="71" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G71" s="20"/>
+    </row>
+    <row r="72" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G72" s="20"/>
+    </row>
+    <row r="73" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G73" s="20"/>
+    </row>
+    <row r="74" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="13"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G74" s="20"/>
+    </row>
+    <row r="75" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="13"/>
+      <c r="B75" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="13"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="13"/>
+      <c r="B89" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="14"/>
+      <c r="B90" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E94" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="97" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="103" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="A3:A14"/>
+  <mergeCells count="32">
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A62:A76"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="A52:A61"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B19:B23"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="A15:A51"/>
     <mergeCell ref="B52:B54"/>
@@ -2263,11 +3139,11 @@
     <mergeCell ref="B39:B43"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="A52:A61"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="A3:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/王者系统/测试文档/王者系统客户端测试用例运行结果报告.xlsx
+++ b/王者系统/测试文档/王者系统客户端测试用例运行结果报告.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\nl_files\王者系统\测试文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961BD4C1-061E-4C0A-8EFB-711895B9A22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7831DB6B-15DA-48E5-8E21-C1B6DD5853B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{536875B9-95B1-4DE2-94EB-8EA85D31D9CF}"/>
   </bookViews>
@@ -732,122 +732,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>添加地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加地址，点击保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断流程，提示：请输入收货人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加地址，输入收货人姓名，点击保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断流程，提示：请输入收货人手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加地址，输入收货人姓名，输入不合法的手机号，点击保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断流程，提示：请输入合法的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加地址，输入收货人姓名，输入合法的手机号，选择省市区，点击保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断流程，提示：请输入详细地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加地址，输入收货人姓名，输入合法的手机号，选择省市区，输入详细地址，点击保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加成功，地址列表展示地址信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加地址，输入收货人姓名，输入合法的手机号，选择省市区，输入详细地址，勾选设为默认地址，点击保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加成功，地址列表展示地址信息，并展示默认标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有验证手机号的合法性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试流程同添加地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑地址，点击右上角删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除成功，地址列表不展示删除的地址信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断流程，提示：请输入反馈内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击意见反馈，点击提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击意见反馈，输入反馈内容，点击提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交反馈信息成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入推广二维码页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入推广二维码页，点击下载二维码保存到本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成推广二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存二维码到本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>地址管理</t>
-  </si>
-  <si>
-    <t>添加地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击添加地址，点击保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中断流程，提示：请输入收货人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击添加地址，输入收货人姓名，点击保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中断流程，提示：请输入收货人手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击添加地址，输入收货人姓名，输入不合法的手机号，点击保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中断流程，提示：请输入合法的手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击添加地址，输入收货人姓名，输入合法的手机号，选择省市区，点击保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中断流程，提示：请输入详细地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击添加地址，输入收货人姓名，输入合法的手机号，选择省市区，输入详细地址，点击保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加成功，地址列表展示地址信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击添加地址，输入收货人姓名，输入合法的手机号，选择省市区，输入详细地址，勾选设为默认地址，点击保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加成功，地址列表展示地址信息，并展示默认标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有验证手机号的合法性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试流程同添加地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击编辑地址，点击右上角删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除成功，地址列表不展示删除的地址信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意见反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中断流程，提示：请输入反馈内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击意见反馈，点击提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击意见反馈，输入反馈内容，点击提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交反馈信息成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推广二维码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入推广二维码页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入推广二维码页，点击下载二维码保存到本地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成推广二维码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存二维码到本地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1033,8 +1034,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1048,23 +1061,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1383,8 +1384,8 @@
   <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
+      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1399,15 +1400,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1433,10 +1434,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1451,11 +1452,11 @@
       <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="17"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="7" t="s">
         <v>26</v>
       </c>
@@ -1468,11 +1469,11 @@
       <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="7" t="s">
         <v>27</v>
       </c>
@@ -1485,11 +1486,11 @@
       <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="17"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1504,11 +1505,11 @@
       <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1521,11 +1522,11 @@
       <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
@@ -1538,13 +1539,13 @@
       <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
@@ -1559,8 +1560,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
@@ -1573,13 +1574,13 @@
       <c r="F10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1596,8 +1597,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="7" t="s">
         <v>31</v>
       </c>
@@ -1612,8 +1613,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="7" t="s">
         <v>33</v>
       </c>
@@ -1628,8 +1629,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="7" t="s">
         <v>35</v>
       </c>
@@ -1644,10 +1645,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1662,13 +1663,13 @@
       <c r="F15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7" t="s">
         <v>42</v>
       </c>
@@ -1681,13 +1682,13 @@
       <c r="F16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="7" t="s">
         <v>43</v>
       </c>
@@ -1700,13 +1701,13 @@
       <c r="F17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="7" t="s">
         <v>44</v>
       </c>
@@ -1719,13 +1720,13 @@
       <c r="F18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1740,13 +1741,13 @@
       <c r="F19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7" t="s">
         <v>52</v>
       </c>
@@ -1759,13 +1760,13 @@
       <c r="F20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="7" t="s">
         <v>47</v>
       </c>
@@ -1778,13 +1779,13 @@
       <c r="F21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="7" t="s">
         <v>48</v>
       </c>
@@ -1797,13 +1798,13 @@
       <c r="F22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="7" t="s">
         <v>49</v>
       </c>
@@ -1816,13 +1817,13 @@
       <c r="F23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1837,13 +1838,13 @@
       <c r="F24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="7" t="s">
         <v>53</v>
       </c>
@@ -1856,13 +1857,13 @@
       <c r="F25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="7" t="s">
         <v>54</v>
       </c>
@@ -1875,13 +1876,13 @@
       <c r="F26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="7" t="s">
         <v>55</v>
       </c>
@@ -1894,13 +1895,13 @@
       <c r="F27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="7" t="s">
         <v>56</v>
       </c>
@@ -1913,13 +1914,13 @@
       <c r="F28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -1934,13 +1935,13 @@
       <c r="F29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="7" t="s">
         <v>59</v>
       </c>
@@ -1953,13 +1954,13 @@
       <c r="F30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="7" t="s">
         <v>60</v>
       </c>
@@ -1972,13 +1973,13 @@
       <c r="F31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="7" t="s">
         <v>61</v>
       </c>
@@ -1991,13 +1992,13 @@
       <c r="F32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="7" t="s">
         <v>62</v>
       </c>
@@ -2010,13 +2011,13 @@
       <c r="F33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -2031,13 +2032,13 @@
       <c r="F34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="7" t="s">
         <v>65</v>
       </c>
@@ -2050,13 +2051,13 @@
       <c r="F35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="7" t="s">
         <v>66</v>
       </c>
@@ -2069,13 +2070,13 @@
       <c r="F36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="7" t="s">
         <v>71</v>
       </c>
@@ -2088,13 +2089,13 @@
       <c r="F37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="7" t="s">
         <v>67</v>
       </c>
@@ -2107,13 +2108,13 @@
       <c r="F38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15" t="s">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19" t="s">
         <v>68</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -2128,13 +2129,13 @@
       <c r="F39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="7" t="s">
         <v>70</v>
       </c>
@@ -2147,13 +2148,13 @@
       <c r="F40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="7" t="s">
         <v>72</v>
       </c>
@@ -2166,13 +2167,13 @@
       <c r="F41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G41" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="7" t="s">
         <v>74</v>
       </c>
@@ -2185,13 +2186,13 @@
       <c r="F42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="7" t="s">
         <v>73</v>
       </c>
@@ -2204,13 +2205,13 @@
       <c r="F43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15" t="s">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19" t="s">
         <v>75</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -2225,13 +2226,13 @@
       <c r="F44" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="7" t="s">
         <v>77</v>
       </c>
@@ -2244,13 +2245,13 @@
       <c r="F45" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="G45" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="7" t="s">
         <v>105</v>
       </c>
@@ -2263,13 +2264,13 @@
       <c r="F46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="7" t="s">
         <v>106</v>
       </c>
@@ -2282,13 +2283,13 @@
       <c r="F47" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15" t="s">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19" t="s">
         <v>78</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -2303,13 +2304,13 @@
       <c r="F48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="7" t="s">
         <v>80</v>
       </c>
@@ -2322,13 +2323,13 @@
       <c r="F49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G49" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="7" t="s">
         <v>81</v>
       </c>
@@ -2341,13 +2342,13 @@
       <c r="F50" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="7" t="s">
         <v>82</v>
       </c>
@@ -2360,15 +2361,15 @@
       <c r="F51" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="19" t="s">
         <v>84</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -2385,8 +2386,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="7" t="s">
         <v>87</v>
       </c>
@@ -2401,8 +2402,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="244.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="7" t="s">
         <v>89</v>
       </c>
@@ -2415,13 +2416,13 @@
       <c r="F54" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G54" s="18" t="s">
+      <c r="G54" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15" t="s">
+      <c r="A55" s="19"/>
+      <c r="B55" s="19" t="s">
         <v>91</v>
       </c>
       <c r="C55" s="7" t="s">
@@ -2438,8 +2439,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
       <c r="C56" s="7" t="s">
         <v>94</v>
       </c>
@@ -2454,8 +2455,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="7" t="s">
         <v>96</v>
       </c>
@@ -2470,8 +2471,8 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="7" t="s">
         <v>98</v>
       </c>
@@ -2484,13 +2485,13 @@
       <c r="F58" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G58" s="18" t="s">
+      <c r="G58" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15" t="s">
+      <c r="A59" s="19"/>
+      <c r="B59" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C59" s="7" t="s">
@@ -2507,8 +2508,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="7" t="s">
         <v>102</v>
       </c>
@@ -2523,8 +2524,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="7" t="s">
         <v>103</v>
       </c>
@@ -2537,15 +2538,15 @@
       <c r="F61" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G61" s="18" t="s">
+      <c r="G61" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="19" t="s">
         <v>108</v>
       </c>
       <c r="C62" s="7" t="s">
@@ -2562,8 +2563,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="15"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="7" t="s">
         <v>111</v>
       </c>
@@ -2578,8 +2579,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
-      <c r="B64" s="15" t="s">
+      <c r="A64" s="17"/>
+      <c r="B64" s="19" t="s">
         <v>113</v>
       </c>
       <c r="C64" s="7" t="s">
@@ -2596,8 +2597,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="15"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="7" t="s">
         <v>116</v>
       </c>
@@ -2612,8 +2613,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
-      <c r="B66" s="15" t="s">
+      <c r="A66" s="17"/>
+      <c r="B66" s="19" t="s">
         <v>118</v>
       </c>
       <c r="C66" s="7" t="s">
@@ -2622,68 +2623,68 @@
       <c r="D66" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="21" t="s">
+      <c r="E66" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F66" s="16" t="s">
+      <c r="F66" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G66" s="20"/>
+      <c r="G66" s="14"/>
     </row>
     <row r="67" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-      <c r="B67" s="15"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="7" t="s">
         <v>119</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E67" s="21" t="s">
+      <c r="E67" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F67" s="16" t="s">
+      <c r="F67" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G67" s="20"/>
+      <c r="G67" s="14"/>
     </row>
     <row r="68" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
-      <c r="B68" s="15"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="19"/>
       <c r="C68" s="7" t="s">
         <v>123</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="21" t="s">
+      <c r="E68" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F68" s="16" t="s">
+      <c r="F68" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G68" s="20"/>
+      <c r="G68" s="14"/>
     </row>
     <row r="69" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="7" t="s">
         <v>125</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="E69" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F69" s="16" t="s">
+      <c r="F69" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G69" s="20"/>
+      <c r="G69" s="14"/>
     </row>
     <row r="70" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
-      <c r="B70" s="12" t="s">
+      <c r="A70" s="17"/>
+      <c r="B70" s="16" t="s">
         <v>127</v>
       </c>
       <c r="C70" s="7" t="s">
@@ -2692,85 +2693,85 @@
       <c r="D70" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E70" s="21" t="s">
+      <c r="E70" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F70" s="16" t="s">
+      <c r="F70" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G70" s="20"/>
+      <c r="G70" s="14"/>
     </row>
     <row r="71" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
       <c r="C71" s="7" t="s">
         <v>130</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E71" s="21" t="s">
+      <c r="E71" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="F71" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G71" s="20"/>
+      <c r="G71" s="14"/>
     </row>
     <row r="72" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
       <c r="C72" s="7" t="s">
         <v>132</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E72" s="21" t="s">
+      <c r="E72" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F72" s="16" t="s">
+      <c r="F72" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G72" s="20"/>
+      <c r="G72" s="14"/>
     </row>
     <row r="73" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
       <c r="C73" s="7" t="s">
         <v>133</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E73" s="21" t="s">
+      <c r="E73" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="F73" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G73" s="20"/>
+      <c r="G73" s="14"/>
     </row>
     <row r="74" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
-      <c r="B74" s="14"/>
+      <c r="A74" s="17"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E74" s="21" t="s">
+      <c r="E74" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G74" s="20"/>
+      <c r="G74" s="14"/>
     </row>
     <row r="75" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
-      <c r="B75" s="12" t="s">
+      <c r="A75" s="17"/>
+      <c r="B75" s="16" t="s">
         <v>137</v>
       </c>
       <c r="C75" s="7" t="s">
@@ -2779,34 +2780,34 @@
       <c r="D75" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E75" s="21" t="s">
+      <c r="E75" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F75" s="16" t="s">
+      <c r="F75" s="11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="7" t="s">
         <v>140</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E76" s="21" t="s">
+      <c r="E76" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F76" s="16" t="s">
+      <c r="F76" s="11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="16" t="s">
         <v>143</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -2823,8 +2824,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
-      <c r="B78" s="13"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
       <c r="C78" s="7" t="s">
         <v>146</v>
       </c>
@@ -2839,8 +2840,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
       <c r="C79" s="7" t="s">
         <v>148</v>
       </c>
@@ -2855,8 +2856,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13"/>
-      <c r="B80" s="13"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
       <c r="C80" s="7" t="s">
         <v>150</v>
       </c>
@@ -2871,8 +2872,8 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
       <c r="C81" s="7" t="s">
         <v>152</v>
       </c>
@@ -2887,8 +2888,8 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
+      <c r="A82" s="18"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="7" t="s">
         <v>154</v>
       </c>
@@ -2898,206 +2899,206 @@
       <c r="E82" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F82" s="16" t="s">
+      <c r="F82" s="11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B83" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="C83" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="D83" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="E83" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E83" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="7" t="s">
+      <c r="D84" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="E84" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E84" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="7" t="s">
+      <c r="D85" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="E85" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="D86" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="17"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="17"/>
+      <c r="B89" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F85" s="16" t="s">
+      <c r="G89" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="18"/>
+      <c r="B90" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F91" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
-      <c r="B89" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
-      <c r="B90" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C91" s="7" t="s">
+    <row r="92" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D91" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E91" s="21" t="s">
+      <c r="D92" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E92" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F91" s="16" t="s">
+      <c r="F92" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D92" s="6" t="s">
+    <row r="93" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="E92" s="21" t="s">
+      <c r="B93" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="18"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E94" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F92" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E94" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F94" s="16" t="s">
+      <c r="F94" s="11" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3112,12 +3113,24 @@
     <row r="103" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="A83:A90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A15:A51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="A52:A61"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B19:B23"/>
     <mergeCell ref="B70:B74"/>
     <mergeCell ref="B75:B76"/>
     <mergeCell ref="A62:A76"/>
@@ -3126,24 +3139,12 @@
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="A52:A61"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A15:A51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="A93:A94"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/王者系统/测试文档/王者系统客户端测试用例运行结果报告.xlsx
+++ b/王者系统/测试文档/王者系统客户端测试用例运行结果报告.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\nl_files\王者系统\测试文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\naling\nl_files\王者系统\测试文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7831DB6B-15DA-48E5-8E21-C1B6DD5853B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F10321E-914E-443B-9DFB-04E87049D207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{536875B9-95B1-4DE2-94EB-8EA85D31D9CF}"/>
   </bookViews>
@@ -1000,7 +1000,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1025,9 +1025,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1049,6 +1046,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1063,9 +1063,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1381,21 +1378,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E709AE23-7050-41A7-879C-CFE9D16ED959}">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
+      <pane ySplit="2" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.6640625" style="7" customWidth="1"/>
-    <col min="4" max="5" width="42.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="42.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="33.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
@@ -1414,7 +1412,7 @@
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1437,122 +1435,122 @@
       <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
-      <c r="B4" s="21"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
-      <c r="B5" s="21"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
-      <c r="B7" s="21"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
-      <c r="B8" s="21"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="21"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -1561,35 +1559,35 @@
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
-      <c r="B10" s="21"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -1598,14 +1596,14 @@
     </row>
     <row r="12" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
-      <c r="B12" s="21"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -1614,14 +1612,14 @@
     </row>
     <row r="13" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
-      <c r="B13" s="21"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -1630,14 +1628,14 @@
     </row>
     <row r="14" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
-      <c r="B14" s="21"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -1654,16 +1652,16 @@
       <c r="C15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1673,16 +1671,16 @@
       <c r="C16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1692,16 +1690,16 @@
       <c r="C17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1711,16 +1709,16 @@
       <c r="C18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1732,16 +1730,16 @@
       <c r="C19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1751,16 +1749,16 @@
       <c r="C20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1770,16 +1768,16 @@
       <c r="C21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1789,16 +1787,16 @@
       <c r="C22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1808,16 +1806,16 @@
       <c r="C23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1829,16 +1827,16 @@
       <c r="C24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="D24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1848,16 +1846,16 @@
       <c r="C25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="D25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1867,16 +1865,16 @@
       <c r="C26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="D26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1886,16 +1884,16 @@
       <c r="C27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="10" t="s">
+      <c r="D27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1905,16 +1903,16 @@
       <c r="C28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1926,16 +1924,16 @@
       <c r="C29" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="D29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1945,16 +1943,16 @@
       <c r="C30" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="D30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1964,16 +1962,16 @@
       <c r="C31" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="D31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1983,16 +1981,16 @@
       <c r="C32" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="10" t="s">
+      <c r="D32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2002,16 +2000,16 @@
       <c r="C33" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2023,16 +2021,16 @@
       <c r="C34" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="D34" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2042,16 +2040,16 @@
       <c r="C35" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="D35" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2061,16 +2059,16 @@
       <c r="C36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="10" t="s">
+      <c r="D36" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2080,16 +2078,16 @@
       <c r="C37" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="10" t="s">
+      <c r="D37" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2099,16 +2097,16 @@
       <c r="C38" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2120,16 +2118,16 @@
       <c r="C39" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="10" t="s">
+      <c r="D39" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2139,16 +2137,16 @@
       <c r="C40" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="10" t="s">
+      <c r="D40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2158,16 +2156,16 @@
       <c r="C41" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="10" t="s">
+      <c r="D41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2177,16 +2175,16 @@
       <c r="C42" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="10" t="s">
+      <c r="D42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2196,16 +2194,16 @@
       <c r="C43" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2217,16 +2215,16 @@
       <c r="C44" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="10" t="s">
+      <c r="D44" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2236,16 +2234,16 @@
       <c r="C45" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="10" t="s">
+      <c r="D45" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2255,16 +2253,16 @@
       <c r="C46" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" s="10" t="s">
+      <c r="D46" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2274,16 +2272,16 @@
       <c r="C47" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2295,16 +2293,16 @@
       <c r="C48" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E48" s="10" t="s">
+      <c r="D48" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2314,16 +2312,16 @@
       <c r="C49" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="10" t="s">
+      <c r="D49" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2333,16 +2331,16 @@
       <c r="C50" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" s="10" t="s">
+      <c r="D50" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2352,16 +2350,16 @@
       <c r="C51" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2375,10 +2373,10 @@
       <c r="C52" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="9" t="s">
         <v>86</v>
       </c>
       <c r="F52" s="4" t="s">
@@ -2391,10 +2389,10 @@
       <c r="C53" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="9" t="s">
         <v>88</v>
       </c>
       <c r="F53" s="4" t="s">
@@ -2407,16 +2405,16 @@
       <c r="C54" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G54" s="13" t="s">
+      <c r="G54" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2428,10 +2426,10 @@
       <c r="C55" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -2444,10 +2442,10 @@
       <c r="C56" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="9" t="s">
         <v>95</v>
       </c>
       <c r="F56" s="4" t="s">
@@ -2460,10 +2458,10 @@
       <c r="C57" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="9" t="s">
         <v>97</v>
       </c>
       <c r="F57" s="4" t="s">
@@ -2476,16 +2474,16 @@
       <c r="C58" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="9" t="s">
         <v>99</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G58" s="13" t="s">
+      <c r="G58" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2497,10 +2495,10 @@
       <c r="C59" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F59" s="4" t="s">
@@ -2513,10 +2511,10 @@
       <c r="C60" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="9" t="s">
         <v>97</v>
       </c>
       <c r="F60" s="4" t="s">
@@ -2529,16 +2527,16 @@
       <c r="C61" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="9" t="s">
         <v>104</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G61" s="13" t="s">
+      <c r="G61" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2552,10 +2550,10 @@
       <c r="C62" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="9" t="s">
         <v>110</v>
       </c>
       <c r="F62" s="4" t="s">
@@ -2568,10 +2566,10 @@
       <c r="C63" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="9" t="s">
         <v>112</v>
       </c>
       <c r="F63" s="4" t="s">
@@ -2586,10 +2584,10 @@
       <c r="C64" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="9" t="s">
         <v>115</v>
       </c>
       <c r="F64" s="4" t="s">
@@ -2602,10 +2600,10 @@
       <c r="C65" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E65" s="9" t="s">
         <v>117</v>
       </c>
       <c r="F65" s="4" t="s">
@@ -2620,16 +2618,16 @@
       <c r="C66" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="E66" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F66" s="11" t="s">
+      <c r="F66" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G66" s="14"/>
+      <c r="G66" s="13"/>
     </row>
     <row r="67" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
@@ -2637,16 +2635,16 @@
       <c r="C67" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E67" s="15" t="s">
+      <c r="E67" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F67" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G67" s="14"/>
+      <c r="G67" s="13"/>
     </row>
     <row r="68" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
@@ -2654,16 +2652,16 @@
       <c r="C68" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="15" t="s">
+      <c r="E68" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="F68" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G68" s="14"/>
+      <c r="G68" s="13"/>
     </row>
     <row r="69" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
@@ -2671,16 +2669,16 @@
       <c r="C69" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E69" s="15" t="s">
+      <c r="E69" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F69" s="11" t="s">
+      <c r="F69" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G69" s="14"/>
+      <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
@@ -2690,16 +2688,16 @@
       <c r="C70" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E70" s="15" t="s">
+      <c r="E70" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F70" s="11" t="s">
+      <c r="F70" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G70" s="14"/>
+      <c r="G70" s="13"/>
     </row>
     <row r="71" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
@@ -2707,16 +2705,16 @@
       <c r="C71" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E71" s="15" t="s">
+      <c r="E71" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F71" s="11" t="s">
+      <c r="F71" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G71" s="14"/>
+      <c r="G71" s="13"/>
     </row>
     <row r="72" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17"/>
@@ -2724,16 +2722,16 @@
       <c r="C72" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E72" s="15" t="s">
+      <c r="E72" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G72" s="14"/>
+      <c r="G72" s="13"/>
     </row>
     <row r="73" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
@@ -2741,16 +2739,16 @@
       <c r="C73" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E73" s="15" t="s">
+      <c r="E73" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F73" s="11" t="s">
+      <c r="F73" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G73" s="14"/>
+      <c r="G73" s="13"/>
     </row>
     <row r="74" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
@@ -2758,16 +2756,16 @@
       <c r="C74" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E74" s="15" t="s">
+      <c r="E74" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F74" s="11" t="s">
+      <c r="F74" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G74" s="14"/>
+      <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
@@ -2777,13 +2775,13 @@
       <c r="C75" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="E75" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F75" s="11" t="s">
+      <c r="F75" s="10" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2793,13 +2791,13 @@
       <c r="C76" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E76" s="15" t="s">
+      <c r="E76" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F76" s="11" t="s">
+      <c r="F76" s="10" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2813,10 +2811,10 @@
       <c r="C77" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E77" s="9" t="s">
         <v>145</v>
       </c>
       <c r="F77" s="4" t="s">
@@ -2829,10 +2827,10 @@
       <c r="C78" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="E78" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F78" s="4" t="s">
@@ -2845,10 +2843,10 @@
       <c r="C79" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E79" s="9" t="s">
         <v>149</v>
       </c>
       <c r="F79" s="4" t="s">
@@ -2861,10 +2859,10 @@
       <c r="C80" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E80" s="9" t="s">
         <v>151</v>
       </c>
       <c r="F80" s="4" t="s">
@@ -2877,10 +2875,10 @@
       <c r="C81" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="9" t="s">
         <v>153</v>
       </c>
       <c r="F81" s="4" t="s">
@@ -2893,13 +2891,13 @@
       <c r="C82" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D82" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E82" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="F82" s="10" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2913,10 +2911,10 @@
       <c r="C83" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E83" s="9" t="s">
         <v>159</v>
       </c>
       <c r="F83" s="4" t="s">
@@ -2929,10 +2927,10 @@
       <c r="C84" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E84" s="9" t="s">
         <v>161</v>
       </c>
       <c r="F84" s="4" t="s">
@@ -2945,13 +2943,13 @@
       <c r="C85" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E85" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="F85" s="11" t="s">
+      <c r="F85" s="10" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2961,10 +2959,10 @@
       <c r="C86" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E86" s="10" t="s">
+      <c r="E86" s="9" t="s">
         <v>165</v>
       </c>
       <c r="F86" s="4" t="s">
@@ -2977,10 +2975,10 @@
       <c r="C87" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E87" s="9" t="s">
         <v>167</v>
       </c>
       <c r="F87" s="4" t="s">
@@ -2993,10 +2991,10 @@
       <c r="C88" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D88" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="E88" s="9" t="s">
         <v>169</v>
       </c>
       <c r="F88" s="4" t="s">
@@ -3005,16 +3003,16 @@
     </row>
     <row r="89" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17"/>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="G89" s="9" t="s">
+      <c r="G89" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="18"/>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="15" t="s">
         <v>173</v>
       </c>
       <c r="C90" s="7" t="s">
@@ -3043,10 +3041,10 @@
       <c r="D91" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E91" s="15" t="s">
+      <c r="E91" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F91" s="11" t="s">
+      <c r="F91" s="10" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3059,10 +3057,10 @@
       <c r="D92" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E92" s="15" t="s">
+      <c r="E92" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F92" s="11" t="s">
+      <c r="F92" s="10" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3095,22 +3093,16 @@
       <c r="D94" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E94" s="15" t="s">
+      <c r="E94" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F94" s="11" t="s">
+      <c r="F94" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="32">
     <mergeCell ref="A1:G1"/>
